--- a/Excel Test/New Microsoft Excel Worksheet.xlsx
+++ b/Excel Test/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7196BE62-304D-40F5-944D-0BFC398B402E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Week</t>
   </si>
@@ -109,9 +110,6 @@
   </si>
   <si>
     <t>Something Tutorial 1</t>
-  </si>
-  <si>
-    <t>Something Tutorial 3</t>
   </si>
   <si>
     <t>Something Tutorial 4</t>
@@ -171,12 +169,22 @@
     <t>Something Tutorial 2
 adawdwadwad
 wadawdad</t>
+  </si>
+  <si>
+    <t>Something Tutorial 3
+Something Tutorial 3 Link</t>
+  </si>
+  <si>
+    <t>Some footer</t>
+  </si>
+  <si>
+    <t>Also here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,14 +235,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -255,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0">
-  <autoFilter ref="A3:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0">
+  <autoFilter ref="A3:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Week"/>
-    <tableColumn id="2" name="Lecture"/>
-    <tableColumn id="3" name="Practical"/>
-    <tableColumn id="4" name="Tutorial"/>
-    <tableColumn id="5" name="some rubbish remark"/>
-    <tableColumn id="6" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lecture"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Practical"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tutorial"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="some rubbish remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,44 +539,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -582,14 +590,14 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -602,13 +610,13 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -618,17 +626,17 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -638,17 +646,17 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -659,16 +667,16 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -679,16 +687,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -699,16 +707,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -719,16 +727,16 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -739,16 +747,16 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -759,16 +767,16 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -779,16 +787,16 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -799,16 +807,16 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -819,13 +827,21 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -834,12 +850,13 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.google.com/" xr:uid="{D30916B6-7F3A-46A8-AFA8-3AC389192C47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel Test/New Microsoft Excel Worksheet.xlsx
+++ b/Excel Test/New Microsoft Excel Worksheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7196BE62-304D-40F5-944D-0BFC398B402E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95B3AF77-974E-4A5B-B0B4-DBF5ED540236}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18192" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,6 +243,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,7 +547,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +610,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
@@ -626,7 +630,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
@@ -850,13 +854,14 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.google.com/" xr:uid="{D30916B6-7F3A-46A8-AFA8-3AC389192C47}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.google.com/" xr:uid="{D30916B6-7F3A-46A8-AFA8-3AC389192C47}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{08B7D8FA-54EC-4B4A-8EEF-F1D1D75F1EFB}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://www.google.com/" xr:uid="{987149B4-D492-4830-89A1-DCD7B5D0CCB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>